--- a/static/assets/uploads/PCOS_positive.xlsx
+++ b/static/assets/uploads/PCOS_positive.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colasino\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Patient File No.</t>
   </si>
@@ -192,7 +187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -574,7 +569,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -585,7 +580,7 @@
   <dimension ref="A1:AP2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,8 +778,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="5">
-        <f>(F2/E2)</f>
-        <v>0.80952380952380953</v>
+        <v>0.81</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
@@ -850,8 +844,7 @@
         <v>5.48</v>
       </c>
       <c r="AC2" s="5">
-        <f>(AA2/AB2)</f>
-        <v>0.80656934306569339</v>
+        <v>0.81</v>
       </c>
       <c r="AD2" s="4">
         <v>3.26</v>
